--- a/test_dataset_quantity/多轮.xlsx
+++ b/test_dataset_quantity/多轮.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="17750" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>query1</t>
   </si>
@@ -35,133 +37,187 @@
     <t>query2</t>
   </si>
   <si>
-    <t>创建联系人江涵 生日是2000年2月1日 手机号12212345678 喜欢打网球</t>
-  </si>
-  <si>
-    <t>江涵过生日我送什么礼物好</t>
-  </si>
-  <si>
-    <t>江涵的生日是哪一天、手机号是多少</t>
+    <t>query3</t>
+  </si>
+  <si>
+    <t>query4</t>
+  </si>
+  <si>
+    <t>明天下午三点和江涵开会；明天10点和鲁力开产品PRD对齐的会议；明天晚上八点要讨论产品之后Roadmap</t>
+  </si>
+  <si>
+    <t>把明天下午的会议挪到后天开</t>
+  </si>
+  <si>
+    <t>明天下午的会议取消了</t>
+  </si>
+  <si>
+    <t>明天下午的会议改到上午开了</t>
+  </si>
+  <si>
+    <t>周三晚上和李博在国贸吃潮州菜</t>
+  </si>
+  <si>
+    <t>把周四晚上跟李博约的饭改到望京</t>
+  </si>
+  <si>
+    <t>这周日下午来公司加班，推进一下app的设计进度</t>
+  </si>
+  <si>
+    <t>周二晚上跟董老师打网球的时间改到20:30了</t>
+  </si>
+  <si>
+    <t>这周五下午四点半要开股东大会</t>
+  </si>
+  <si>
+    <t>股东大会的地点改到雁栖湖了</t>
+  </si>
+  <si>
+    <t>/home/libo/chatapi/test_dataset_quantity/images/预约会议.png</t>
+  </si>
+  <si>
+    <t>能改到周五上午沟通，你看你们方不方便，然后我们这边的这个team leader可能也会一起过来</t>
+  </si>
+  <si>
+    <t>明天下午三点和江涵开会；明天10点和鲁力开产品PRD对齐的会议；明天晚上八点要讨论产品之后Roadmap。明天晚上吃饭前去公司周围跑步30min。</t>
+  </si>
+  <si>
+    <t>明天晚上的产品Roadmap讨论会改到跑步前开了</t>
+  </si>
+  <si>
+    <t>明天晚上八点开产品的例会，开完会我在公司旁边跑个10公里，跑了去吃夜宵</t>
+  </si>
+  <si>
+    <t>明天晚上八点的例会取消了 后面的日程都提前</t>
+  </si>
+  <si>
+    <t>周五下午四点项目评审；周五晚上七点聚餐；周六上午十点开总结会</t>
+  </si>
+  <si>
+    <t>把周六上午的总结会改到周五聚餐之后。</t>
+  </si>
+  <si>
+    <t>明天上午十点开产品会；明天下午三点客户沟通；明天晚上七点团队聚餐。</t>
+  </si>
+  <si>
+    <t>把明天所有和客户有关的会议都往后挪一天。</t>
+  </si>
+  <si>
+    <t>明天下午三点产品评审会；明天晚上八点产品Roadmap讨论会。</t>
+  </si>
+  <si>
+    <t>把明天晚上的那个产品会议改到后天。</t>
+  </si>
+  <si>
+    <t>明天下午两点在302会议室开会；明天下午四点在202会议室开会；明天晚上七点在公司楼下吃饭。</t>
+  </si>
+  <si>
+    <t>把明天下午在202会议室的会议改到雁栖湖。</t>
+  </si>
+  <si>
+    <t>明天上午十点开产品会；明天下午三点客户沟通。明天下午四点开团队总结会。</t>
+  </si>
+  <si>
+    <t>把明天下午的客户沟通改到上午会议之后。</t>
+  </si>
+  <si>
+    <t>明天下午三点产品会；后天下午四点客户会；周五下午两点内部评审。</t>
+  </si>
+  <si>
+    <t>把这些会议都改到下周一下午。</t>
+  </si>
+  <si>
+    <t>周二上午十点产品评审；周三下午两点客户沟通；周四上午九点产品讨论；周五下午四点团队复盘。</t>
+  </si>
+  <si>
+    <t>把这周所有产品相关的会议都挪到周五上午。</t>
+  </si>
+  <si>
+    <t>创建联系人江涵</t>
+  </si>
+  <si>
+    <t>他生日是2000年2月1日</t>
+  </si>
+  <si>
+    <t>手机号是12212345678</t>
+  </si>
+  <si>
+    <t>他喜欢打网球</t>
+  </si>
+  <si>
+    <t>帮我约下周三和江涵吃饭。</t>
+  </si>
+  <si>
+    <t>那天下午两点我还有空吗？</t>
+  </si>
+  <si>
+    <t>把它改到晚上。</t>
   </si>
   <si>
     <t>创建联系人李璐 他从事服务器相关行业 手机号是15678906767</t>
   </si>
   <si>
-    <t>我前几天认识的那个卖服务器算力的人的手机号是多少</t>
-  </si>
-  <si>
-    <t>创建联系人李璐 他从事服务器相关行业 手机号是15678906767 ，总是和他一起吃肯德基</t>
-  </si>
-  <si>
-    <t>有没有姓李的联系人</t>
-  </si>
-  <si>
-    <t>创建联系人李璐 他从事服务器相关行业 手机号是15678906767 ，创建联系人李涵。</t>
-  </si>
-  <si>
-    <t>李璐爱吃肯德基吗</t>
-  </si>
-  <si>
-    <t>下个月谁过生日</t>
-  </si>
-  <si>
-    <t>创建联系人陈may</t>
-  </si>
-  <si>
-    <t>/home/libo/chatapi/test_dataset/images/修改人脉.png</t>
-  </si>
-  <si>
-    <t>把江涵的电话改成13800138111</t>
-  </si>
-  <si>
-    <t>帮我把李璐生日改成10月1日</t>
-  </si>
-  <si>
-    <t>给李璐添加备注：重要客户</t>
-  </si>
-  <si>
-    <t>删除联系人李璐</t>
-  </si>
-  <si>
-    <t>请帮我创建一个人脉,标题为:嘉华集团,描述为:这是一个测试人脉,公司为:嘉华集团,职位为:董事长,电话为:13800138013,邮箱为:zhangsan@gmail.com,微信为:zhangsan</t>
-  </si>
-  <si>
-    <t>已经和嘉华集团关系终止</t>
-  </si>
-  <si>
-    <t>创建下午六点的日程 去和江涵打网球</t>
-  </si>
-  <si>
-    <t>晚上七点之前有安排吗？</t>
-  </si>
-  <si>
-    <t>明天晚上八点 和江涵吃火锅</t>
-  </si>
-  <si>
-    <t>明天下午有没有安排？</t>
-  </si>
-  <si>
-    <t>下周五与李总商讨方案细节</t>
-  </si>
-  <si>
-    <t>下周有没有和李总的安排？</t>
-  </si>
-  <si>
-    <t>周三中午要和江涵吃肯德基</t>
-  </si>
-  <si>
-    <t>客户说周三下午来拜访，我那会儿有空吗？</t>
-  </si>
-  <si>
-    <t>下周什么时候比较空？</t>
-  </si>
-  <si>
-    <t>今天晚上八点 和江涵吃火锅</t>
-  </si>
-  <si>
-    <t>今天后面还有事情吗？</t>
-  </si>
-  <si>
-    <t>后天中午要参加产品例会</t>
-  </si>
-  <si>
-    <t>产品例会安排了吗？</t>
-  </si>
-  <si>
-    <t>明天下午六点 和江涵开会</t>
-  </si>
-  <si>
-    <t>明天下午和江涵的会议几点？</t>
-  </si>
-  <si>
-    <t>/home/libo/chatapi/test_dataset/images/查询日程日程冲突.png</t>
-  </si>
-  <si>
-    <t>今天下午八点和江涵在202会议室开会</t>
-  </si>
-  <si>
-    <t>下午的会议地点改为302会议室</t>
-  </si>
-  <si>
-    <t>下周四和江涵讨论产品</t>
-  </si>
-  <si>
-    <t>把下周四的会议改到这周四</t>
-  </si>
-  <si>
-    <t>把明天的日程挪到后天</t>
-  </si>
-  <si>
-    <t>后天中午要参加产品例会、后天下午六点和江涵打球</t>
-  </si>
-  <si>
-    <t>取消后天的全部会议</t>
-  </si>
-  <si>
-    <t>这周六和李博吃肯德基</t>
-  </si>
-  <si>
-    <t>和李博吃肯德基的聚餐取消了</t>
+    <t>帮我查一下李璐的手机号，顺便帮我准备一个明天上午十点和他的会议，标题叫‘技术对齐’。”</t>
+  </si>
+  <si>
+    <t>记得提醒我明天下班之后去锻炼，晚上八点</t>
+  </si>
+  <si>
+    <t>那个会议先不开了，帮我把他的生日备注成 10月24号。</t>
+  </si>
+  <si>
+    <t>江涵的电话是 13812345678，他是做前端开发的。</t>
+  </si>
+  <si>
+    <t>哦对了，我刚才突然想起王五了，王五是做后端的，他上周离职了</t>
+  </si>
+  <si>
+    <t>回到刚才那个人，把他的职位改成‘全栈工程师’。</t>
+  </si>
+  <si>
+    <t>下周三下午两点跟李总开会</t>
+  </si>
+  <si>
+    <t>帮我把下周三下午两点和李总的会改到周四下午三点。</t>
+  </si>
+  <si>
+    <t>算了算了，周四我好像要出差……诶，不对，那是下下周的事。还是按刚才说的那个时间改吧，地点设在雁栖湖。</t>
+  </si>
+  <si>
+    <t>明天10点产品会，明天11点技术会</t>
+  </si>
+  <si>
+    <t>把这两个会议合并成一个，叫“产品技术对齐会”</t>
+  </si>
+  <si>
+    <t>明天下午两点去望京拜访张总；明天下午五点回公司。</t>
+  </si>
+  <si>
+    <t>把拜访张总的时间改到三点。</t>
+  </si>
+  <si>
+    <t>后天上午十点去中关村拜访客户；后天下午两点回公司。</t>
+  </si>
+  <si>
+    <t>把拜访地点改到国贸。</t>
+  </si>
+  <si>
+    <t>周五下午四点提醒我发周报。</t>
+  </si>
+  <si>
+    <t>再加一个提前半小时的提醒。</t>
+  </si>
+  <si>
+    <t>创建联系人李璐 他从事服务器相关行业 手机号是15678906767，重要客户。</t>
+  </si>
+  <si>
+    <t>给所有重要客户下周都安排一次产品沟通会议</t>
+  </si>
+  <si>
+    <t>明天上午十点找领导签字；明天下午两点开会。</t>
+  </si>
+  <si>
+    <t>把签字的事改到开会之后。</t>
   </si>
 </sst>
 </file>
@@ -174,7 +230,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +240,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -528,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -537,38 +601,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFDEE0E3"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFDEE0E3"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFDEE0E3"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
@@ -676,171 +718,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,221 +931,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1368,248 +1190,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="90.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="34.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="48.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="65.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="41.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="14.75" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" ht="14.75" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" ht="14.75" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="14.75" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="14.75" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="/home/libo/chatapi/test_dataset/images/修改人脉.png"/>
-    <hyperlink ref="B23" r:id="rId2" display="/home/libo/chatapi/test_dataset/images/查询日程日程冲突.png"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>